--- a/dmTest.xlsx
+++ b/dmTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrik/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C08E64-FD70-6647-96FA-D64C9F414C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D939A-8D0A-5B43-A2E7-C300E3756833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14920" activeTab="3" xr2:uid="{841D4217-EB62-774E-8AC4-F43565BD9F28}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="419">
   <si>
     <t>yyyymm</t>
   </si>
@@ -1302,6 +1302,21 @@
   </si>
   <si>
     <t>MSE</t>
+  </si>
+  <si>
+    <t>1990-2000</t>
+  </si>
+  <si>
+    <t>2000-2010</t>
+  </si>
+  <si>
+    <t>2010-2020</t>
+  </si>
+  <si>
+    <t>1990-2020</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -32014,26 +32029,26 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -32055,7 +32070,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B3">
         <v>2.9575241249412108E-2</v>
@@ -32072,7 +32087,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="B4">
         <v>2.9847626005855176E-2</v>
@@ -32089,7 +32104,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B5">
         <v>3.065125437411419E-2</v>

--- a/dmTest.xlsx
+++ b/dmTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrik/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D939A-8D0A-5B43-A2E7-C300E3756833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0713A0D-82A1-9841-A5BD-12A036552C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14920" activeTab="3" xr2:uid="{841D4217-EB62-774E-8AC4-F43565BD9F28}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1313,10 +1313,10 @@
     <t>2010-2020</t>
   </si>
   <si>
-    <t>1990-2020</t>
-  </si>
-  <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Total(1990-2020)</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1325,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1397,8 +1397,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -11433,7 +11433,7 @@
         <v>8.0031854590636026E-2</v>
       </c>
       <c r="I2" s="8">
-        <f t="shared" ref="I2:K2" si="0">ABS($B2-D2)</f>
+        <f t="shared" ref="I2:J2" si="0">ABS($B2-D2)</f>
         <v>6.7596396804200681E-2</v>
       </c>
       <c r="J2" s="8">
@@ -11451,7 +11451,7 @@
         <v>6.4050977492167089E-3</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:Q2" si="1">($B2-D2)^2</f>
+        <f t="shared" ref="O2:P2" si="1">($B2-D2)^2</f>
         <v>4.569272860910952E-3</v>
       </c>
       <c r="P2" s="8">
@@ -32036,84 +32036,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="E1" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="B2">
         <v>2.976586440820754E-2</v>
       </c>
       <c r="C2">
-        <v>3.4999455398948734E-2</v>
+        <v>2.9575241249412108E-2</v>
       </c>
       <c r="D2">
-        <v>2.7331412716716425E-2</v>
+        <v>2.9847626005855176E-2</v>
       </c>
       <c r="E2">
-        <v>3.0698910841290911E-2</v>
+        <v>3.065125437411419E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="B3">
-        <v>2.9575241249412108E-2</v>
+        <v>3.4999455398948734E-2</v>
       </c>
       <c r="C3">
         <v>3.4596810083509046E-2</v>
       </c>
       <c r="D3">
-        <v>2.7211796176722629E-2</v>
+        <v>3.5393562249197826E-2</v>
       </c>
       <c r="E3">
-        <v>3.046128250321458E-2</v>
+        <v>3.501838297773642E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="B4">
-        <v>2.9847626005855176E-2</v>
+        <v>2.7331412716716425E-2</v>
       </c>
       <c r="C4">
-        <v>3.5393562249197826E-2</v>
+        <v>2.7211796176722629E-2</v>
       </c>
       <c r="D4">
         <v>2.7308356436385361E-2</v>
       </c>
       <c r="E4">
-        <v>3.0849848230479419E-2</v>
+        <v>2.8078423186358961E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B5">
-        <v>3.065125437411419E-2</v>
+        <v>3.0698910841290911E-2</v>
       </c>
       <c r="C5">
-        <v>3.501838297773642E-2</v>
+        <v>3.046128250321458E-2</v>
       </c>
       <c r="D5">
-        <v>2.8078423186358961E-2</v>
+        <v>3.0849848230479419E-2</v>
       </c>
       <c r="E5">
         <v>3.1249353512736559E-2</v>
